--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1863,10 +1875,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1910,28 +1922,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1956,28 +1968,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2094,10 +2106,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2141,28 +2153,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2187,28 +2199,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2366,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2401,28 +2413,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2459,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2568,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2603,28 +2615,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2661,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2787,10 +2799,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2834,28 +2846,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2880,28 +2892,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2960,10 +2972,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3007,28 +3019,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3053,28 +3065,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3133,10 +3145,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3180,28 +3192,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3226,28 +3238,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3393,10 +3405,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3440,28 +3452,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3486,28 +3498,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3595,10 +3607,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3642,28 +3654,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3688,28 +3700,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3884,10 +3896,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3931,28 +3943,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3977,28 +3989,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4144,10 +4156,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4191,28 +4203,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4237,28 +4249,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4375,10 +4387,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4422,28 +4434,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4468,28 +4480,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4606,10 +4618,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4653,28 +4665,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4699,28 +4711,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4779,10 +4791,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4826,28 +4838,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4872,28 +4884,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5010,10 +5022,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5057,28 +5069,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5103,28 +5115,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5212,10 +5224,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5259,28 +5271,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5305,28 +5317,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5414,10 +5426,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5461,28 +5473,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5507,28 +5519,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5645,10 +5657,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5692,28 +5704,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5738,28 +5750,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5876,10 +5888,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5923,28 +5935,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5969,28 +5981,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6049,10 +6061,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6096,28 +6108,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6142,28 +6154,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6280,10 +6292,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6327,28 +6339,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6373,28 +6385,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6494,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6541,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6587,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6684,10 +6696,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6731,28 +6743,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6777,28 +6789,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6886,10 +6898,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6933,28 +6945,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6979,28 +6991,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7059,10 +7071,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7106,28 +7118,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7152,28 +7164,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7232,10 +7244,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7279,28 +7291,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7325,28 +7337,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7492,10 +7504,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7539,28 +7551,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7585,28 +7597,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7723,10 +7735,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7770,28 +7782,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7816,28 +7828,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7896,10 +7908,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7943,28 +7955,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7989,28 +8001,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8069,10 +8081,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8116,28 +8128,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8162,28 +8174,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8242,10 +8254,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8289,28 +8301,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8335,28 +8347,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8415,10 +8427,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8462,28 +8474,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8508,28 +8520,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8588,10 +8600,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8635,28 +8647,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8681,28 +8693,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8790,10 +8802,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8837,28 +8849,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8883,28 +8895,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8963,10 +8975,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9048" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -402,10 +450,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -449,28 +497,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="4">
+      <c r="C11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -495,28 +543,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -633,10 +681,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="4">
+      <c r="A19" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="4">
+      <c r="C19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -726,28 +774,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="4">
+      <c r="I21" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -893,10 +941,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="J26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -940,28 +988,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="4">
+      <c r="A28" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="4">
+      <c r="C28" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -986,28 +1034,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="4">
+      <c r="I30" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1095,10 +1143,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1142,28 +1190,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="4">
+      <c r="A35" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="4">
+      <c r="C35" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1188,28 +1236,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="4">
+      <c r="I37" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1326,10 +1374,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="J41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1373,28 +1421,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="4">
+      <c r="A43" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="4">
+      <c r="C43" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1419,28 +1467,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="4">
+      <c r="I45" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1615,10 +1663,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1662,28 +1710,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="4">
+      <c r="A53" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="4">
+      <c r="C53" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="4">
+      <c r="G53" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="4">
+      <c r="H53" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1708,28 +1756,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="4">
+      <c r="I55" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1875,10 +1923,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="4" t="s">
+      <c r="J60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1922,28 +1970,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="4">
+      <c r="A62" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="4">
+      <c r="C62" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1968,28 +2016,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="4">
+      <c r="I64" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2106,10 +2154,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="4" t="s">
+      <c r="J68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2153,28 +2201,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="4">
+      <c r="A70" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="4">
+      <c r="C70" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2199,28 +2247,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="4">
+      <c r="D72" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="4">
+      <c r="I72" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2366,10 +2414,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="4" t="s">
+      <c r="J77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2413,28 +2461,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="4">
+      <c r="A79" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="4">
+      <c r="C79" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2459,28 +2507,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="4">
+      <c r="I81" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2568,10 +2616,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="4" t="s">
+      <c r="J84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2615,28 +2663,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="4">
+      <c r="C86" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2661,28 +2709,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="4">
+      <c r="I88" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2799,10 +2847,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="4" t="s">
+      <c r="J92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2846,28 +2894,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="4">
+      <c r="C94" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="4">
+      <c r="G94" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="4">
+      <c r="H94" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2892,28 +2940,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="4">
+      <c r="I96" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2972,10 +3020,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="J98" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3019,28 +3067,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="4">
+      <c r="A100" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="4">
+      <c r="C100" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3065,28 +3113,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="4">
+      <c r="D102" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="4">
+      <c r="I102" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3145,10 +3193,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="4" t="s">
+      <c r="J104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3192,28 +3240,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="4">
+      <c r="A106" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="4">
+      <c r="C106" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3238,28 +3286,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="4">
+      <c r="C108" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="4">
+      <c r="D108" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="4">
+      <c r="I108" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3405,10 +3453,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="4" t="s">
+      <c r="J113" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3452,28 +3500,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="4">
+      <c r="A115" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="4">
+      <c r="C115" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3498,28 +3546,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="4">
+      <c r="D117" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="4">
+      <c r="I117" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3607,10 +3655,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="4" t="s">
+      <c r="J120" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3654,28 +3702,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="4">
+      <c r="A122" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="4">
+      <c r="C122" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3700,28 +3748,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="4">
+      <c r="I124" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3896,10 +3944,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3943,28 +3991,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3989,28 +4037,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4156,10 +4204,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="4" t="s">
+      <c r="J139" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4203,28 +4251,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="4">
+      <c r="A141" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="4">
+      <c r="C141" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4249,28 +4297,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="4">
+      <c r="C143" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="4">
+      <c r="D143" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="4">
+      <c r="G143" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="4">
+      <c r="H143" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="4">
+      <c r="I143" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4387,10 +4435,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="4" t="s">
+      <c r="J147" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4434,28 +4482,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="4">
+      <c r="A149" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="4">
+      <c r="C149" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4480,28 +4528,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="4">
+      <c r="I151" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4618,10 +4666,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="4" t="s">
+      <c r="J155" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4665,28 +4713,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="4">
+      <c r="A157" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="4">
+      <c r="C157" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="4">
+      <c r="G157" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="4">
+      <c r="H157" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4711,28 +4759,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="4">
+      <c r="C159" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="4">
+      <c r="D159" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="4">
+      <c r="I159" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4791,10 +4839,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="4" t="s">
+      <c r="J161" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4838,28 +4886,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="4">
+      <c r="A163" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="4">
+      <c r="C163" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4884,28 +4932,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="4">
+      <c r="C165" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="4">
+      <c r="D165" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="4">
+      <c r="I165" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5022,10 +5070,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="4" t="s">
+      <c r="J169" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5069,28 +5117,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="4">
+      <c r="A171" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="4">
+      <c r="C171" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="4">
+      <c r="E171" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="4">
+      <c r="F171" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="4">
+      <c r="G171" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="4">
+      <c r="H171" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5115,28 +5163,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="4">
+      <c r="I173" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5224,10 +5272,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="4" t="s">
+      <c r="J176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5271,28 +5319,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="4">
+      <c r="C178" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5317,28 +5365,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5426,10 +5474,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="4" t="s">
+      <c r="J183" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5473,28 +5521,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="4">
+      <c r="A185" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="4">
+      <c r="C185" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5519,28 +5567,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="4">
+      <c r="C187" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="4">
+      <c r="D187" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="4">
+      <c r="I187" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5657,10 +5705,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="4" t="s">
+      <c r="J191" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5704,28 +5752,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="4">
+      <c r="A193" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="4">
+      <c r="C193" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5750,28 +5798,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="4">
+      <c r="C195" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="4">
+      <c r="D195" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="4">
+      <c r="I195" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5888,10 +5936,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="4" t="s">
+      <c r="J199" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5935,28 +5983,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="4">
+      <c r="A201" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="4">
+      <c r="C201" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5981,28 +6029,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="4">
+      <c r="C203" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="4">
+      <c r="D203" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="4">
+      <c r="I203" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6061,10 +6109,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="4" t="s">
+      <c r="J205" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6108,28 +6156,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="4">
+      <c r="A207" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="4">
+      <c r="C207" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6154,28 +6202,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="4">
+      <c r="C209" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="4">
+      <c r="D209" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="4">
+      <c r="I209" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6292,10 +6340,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="4" t="s">
+      <c r="J213" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6339,28 +6387,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="4">
+      <c r="A215" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="4">
+      <c r="C215" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6385,28 +6433,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="4">
+      <c r="C217" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="4">
+      <c r="D217" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="4">
+      <c r="E217" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="4">
+      <c r="F217" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="4">
+      <c r="G217" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="4">
+      <c r="H217" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="4">
+      <c r="I217" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6494,10 +6542,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="4" t="s">
+      <c r="J220" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6541,28 +6589,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="4">
+      <c r="A222" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="4">
+      <c r="C222" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="4">
+      <c r="G222" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="4">
+      <c r="H222" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6587,28 +6635,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="4">
+      <c r="C224" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="4">
+      <c r="D224" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="4">
+      <c r="I224" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6696,10 +6744,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="4" t="s">
+      <c r="J227" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6743,28 +6791,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="4">
+      <c r="A229" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="4">
+      <c r="C229" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="4">
+      <c r="G229" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="4">
+      <c r="H229" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6789,28 +6837,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="4">
+      <c r="C231" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="4">
+      <c r="D231" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="4">
+      <c r="I231" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6898,10 +6946,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="4" t="s">
+      <c r="J234" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6945,28 +6993,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="4">
+      <c r="A236" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="4">
+      <c r="C236" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6991,28 +7039,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="4">
+      <c r="C238" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="4">
+      <c r="D238" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="4">
+      <c r="I238" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7071,10 +7119,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="4" t="s">
+      <c r="J240" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7118,28 +7166,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="4">
+      <c r="A242" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="4">
+      <c r="C242" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7164,28 +7212,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="4">
+      <c r="C244" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="4">
+      <c r="D244" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="4">
+      <c r="I244" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7244,10 +7292,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="4" t="s">
+      <c r="J246" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7291,28 +7339,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="4">
+      <c r="A248" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="4">
+      <c r="C248" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7337,28 +7385,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="4">
+      <c r="C250" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="4">
+      <c r="D250" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="4">
+      <c r="I250" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7504,10 +7552,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="4" t="s">
+      <c r="J255" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7551,28 +7599,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="4">
+      <c r="A257" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="4">
+      <c r="C257" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7597,28 +7645,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="4">
+      <c r="C259" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="4">
+      <c r="D259" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="4">
+      <c r="I259" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7735,10 +7783,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="4" t="s">
+      <c r="J263" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7782,28 +7830,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="4">
+      <c r="A265" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="4">
+      <c r="C265" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7828,28 +7876,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="4">
+      <c r="B267" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="4">
+      <c r="C267" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="4">
+      <c r="D267" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="4">
+      <c r="E267" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="4">
+      <c r="F267" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="4">
+      <c r="G267" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="4">
+      <c r="H267" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="4">
+      <c r="I267" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7908,10 +7956,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="4" t="s">
+      <c r="J269" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7955,28 +8003,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="4">
+      <c r="A271" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="4">
+      <c r="C271" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8001,28 +8049,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="4">
+      <c r="C273" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="4">
+      <c r="D273" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="4">
+      <c r="E273" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="4">
+      <c r="F273" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="4">
+      <c r="G273" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="4">
+      <c r="H273" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="4">
+      <c r="I273" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8081,10 +8129,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="4" t="s">
+      <c r="J275" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8128,28 +8176,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="4">
+      <c r="A277" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="4">
+      <c r="C277" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8174,28 +8222,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="4">
+      <c r="C279" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="4">
+      <c r="D279" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="4">
+      <c r="I279" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8254,10 +8302,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="4" t="s">
+      <c r="J281" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8301,28 +8349,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="4">
+      <c r="A283" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="4">
+      <c r="C283" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8347,28 +8395,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="4">
+      <c r="C285" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="4">
+      <c r="D285" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="4">
+      <c r="E285" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="4">
+      <c r="F285" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="4">
+      <c r="G285" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="4">
+      <c r="H285" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="4">
+      <c r="I285" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8427,10 +8475,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="4" t="s">
+      <c r="J287" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8474,28 +8522,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="4">
+      <c r="A289" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="4">
+      <c r="C289" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8520,28 +8568,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="4">
+      <c r="B291" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="4">
+      <c r="C291" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="4">
+      <c r="D291" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="4">
+      <c r="E291" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="4">
+      <c r="F291" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="4">
+      <c r="G291" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="4">
+      <c r="H291" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="4">
+      <c r="I291" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8600,10 +8648,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="4" t="s">
+      <c r="J293" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8647,28 +8695,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="4">
+      <c r="A295" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="4">
+      <c r="C295" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8693,28 +8741,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="4">
+      <c r="B297" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="4">
+      <c r="C297" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="4">
+      <c r="D297" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="4">
+      <c r="E297" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="4">
+      <c r="F297" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="4">
+      <c r="G297" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="4">
+      <c r="H297" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="4">
+      <c r="I297" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8802,10 +8850,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="4" t="s">
+      <c r="J300" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8849,28 +8897,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="4">
+      <c r="A302" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="4">
+      <c r="C302" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8895,28 +8943,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="4">
+      <c r="C304" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="4">
+      <c r="D304" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="4">
+      <c r="E304" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="4">
+      <c r="F304" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="4">
+      <c r="G304" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="4">
+      <c r="H304" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="4">
+      <c r="I304" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8975,10 +9023,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="4" t="s">
+      <c r="J306" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9048" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11310" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -450,10 +468,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -497,28 +515,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="12">
+      <c r="C11" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -543,28 +561,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="12">
+      <c r="I13" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -681,10 +699,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -728,28 +746,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="12">
+      <c r="A19" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="12">
+      <c r="C19" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -774,28 +792,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="12">
+      <c r="I21" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -941,10 +959,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -988,28 +1006,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="12">
+      <c r="A28" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="12">
+      <c r="C28" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1034,28 +1052,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="12">
+      <c r="I30" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1143,10 +1161,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1190,28 +1208,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="12">
+      <c r="A35" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="12">
+      <c r="C35" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1236,28 +1254,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1374,10 +1392,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1421,28 +1439,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="12">
+      <c r="A43" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="12">
+      <c r="C43" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1467,28 +1485,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C45" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="12">
+      <c r="I45" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1663,10 +1681,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="12" t="s">
+      <c r="J51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1710,28 +1728,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="12">
+      <c r="A53" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="12">
+      <c r="C53" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F53" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="12">
+      <c r="G53" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1756,28 +1774,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="12">
+      <c r="C55" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="12">
+      <c r="D55" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="12">
+      <c r="I55" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1923,10 +1941,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="12" t="s">
+      <c r="J60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1970,28 +1988,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="12">
+      <c r="A62" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="12">
+      <c r="C62" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2016,28 +2034,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="12">
+      <c r="C64" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="12">
+      <c r="D64" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="12">
+      <c r="I64" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2154,10 +2172,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="12" t="s">
+      <c r="J68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2201,28 +2219,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="12">
+      <c r="A70" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="12">
+      <c r="C70" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2247,28 +2265,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="12">
+      <c r="C72" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="12">
+      <c r="D72" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="12">
+      <c r="I72" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2414,10 +2432,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="12" t="s">
+      <c r="J77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2461,28 +2479,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="12">
+      <c r="A79" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="12">
+      <c r="C79" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2507,28 +2525,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="12">
+      <c r="C81" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="D81" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="12">
+      <c r="I81" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2616,10 +2634,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="12" t="s">
+      <c r="J84" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2663,28 +2681,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="12">
+      <c r="A86" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="12">
+      <c r="C86" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2709,28 +2727,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="12">
+      <c r="I88" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2847,10 +2865,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="12" t="s">
+      <c r="J92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2894,28 +2912,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="12">
+      <c r="A94" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="12">
+      <c r="C94" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="12">
+      <c r="E94" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="12">
+      <c r="F94" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2940,28 +2958,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="12">
+      <c r="I96" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3020,10 +3038,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="12" t="s">
+      <c r="J98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3067,28 +3085,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="12">
+      <c r="A100" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="12">
+      <c r="C100" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3113,28 +3131,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="12">
+      <c r="C102" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="12">
+      <c r="D102" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="12">
+      <c r="I102" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3193,10 +3211,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="12" t="s">
+      <c r="J104" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3240,28 +3258,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="12">
+      <c r="A106" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="12">
+      <c r="C106" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3286,28 +3304,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="12">
+      <c r="C108" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="12">
+      <c r="D108" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="12">
+      <c r="I108" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3453,10 +3471,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="12" t="s">
+      <c r="J113" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3500,28 +3518,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="12">
+      <c r="A115" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="12">
+      <c r="C115" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3546,28 +3564,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="12">
+      <c r="C117" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="12">
+      <c r="D117" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="12">
+      <c r="I117" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3655,10 +3673,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="12" t="s">
+      <c r="J120" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3702,28 +3720,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="12">
+      <c r="A122" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="12">
+      <c r="C122" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3748,28 +3766,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="12">
+      <c r="I124" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3944,10 +3962,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3991,28 +4009,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4037,28 +4055,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4204,10 +4222,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="12" t="s">
+      <c r="J139" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4251,28 +4269,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="12">
+      <c r="A141" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="12">
+      <c r="C141" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4297,28 +4315,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="12">
+      <c r="C143" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="12">
+      <c r="D143" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F143" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="12">
+      <c r="G143" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="12">
+      <c r="H143" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="12">
+      <c r="I143" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4435,10 +4453,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="12" t="s">
+      <c r="J147" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4482,28 +4500,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="12">
+      <c r="A149" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="12">
+      <c r="C149" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4528,28 +4546,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="12">
+      <c r="I151" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4666,10 +4684,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="12" t="s">
+      <c r="J155" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4713,28 +4731,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="12">
+      <c r="A157" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="12">
+      <c r="B157" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="12">
+      <c r="C157" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="12">
+      <c r="E157" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="12">
+      <c r="F157" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="12">
+      <c r="G157" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="12">
+      <c r="H157" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4759,28 +4777,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="12">
+      <c r="C159" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="12">
+      <c r="D159" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="12">
+      <c r="I159" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4839,10 +4857,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="12" t="s">
+      <c r="J161" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4886,28 +4904,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="12">
+      <c r="A163" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="12">
+      <c r="C163" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4932,28 +4950,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="12">
+      <c r="C165" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="12">
+      <c r="D165" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="12">
+      <c r="I165" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5070,10 +5088,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="12" t="s">
+      <c r="J169" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5117,28 +5135,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="12">
+      <c r="A171" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="12">
+      <c r="B171" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="12">
+      <c r="C171" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="12">
+      <c r="E171" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="12">
+      <c r="F171" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="12">
+      <c r="G171" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="12">
+      <c r="H171" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5163,28 +5181,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="12">
+      <c r="I173" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5272,10 +5290,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12" t="s">
+      <c r="J176" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5319,28 +5337,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="12">
+      <c r="C178" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5365,28 +5383,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5474,10 +5492,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="12" t="s">
+      <c r="J183" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5521,28 +5539,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="12">
+      <c r="A185" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="12">
+      <c r="C185" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5567,28 +5585,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="12">
+      <c r="C187" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="12">
+      <c r="D187" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="12">
+      <c r="I187" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5705,10 +5723,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="12" t="s">
+      <c r="J191" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5752,28 +5770,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="12">
+      <c r="A193" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="12">
+      <c r="C193" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5798,28 +5816,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="12">
+      <c r="C195" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="12">
+      <c r="D195" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="12">
+      <c r="I195" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5936,10 +5954,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="12" t="s">
+      <c r="J199" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5983,28 +6001,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="12">
+      <c r="A201" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="12">
+      <c r="C201" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6029,28 +6047,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="12">
+      <c r="C203" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="12">
+      <c r="D203" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="12">
+      <c r="I203" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6109,10 +6127,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="12" t="s">
+      <c r="J205" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6156,28 +6174,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="12">
+      <c r="A207" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="12">
+      <c r="C207" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6202,28 +6220,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="12">
+      <c r="C209" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="12">
+      <c r="D209" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="12">
+      <c r="I209" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6340,10 +6358,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="12" t="s">
+      <c r="J213" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6387,28 +6405,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="12">
+      <c r="A215" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="12">
+      <c r="C215" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6433,28 +6451,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="12">
+      <c r="B217" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="12">
+      <c r="C217" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="12">
+      <c r="D217" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="12">
+      <c r="E217" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="12">
+      <c r="F217" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="12">
+      <c r="G217" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="12">
+      <c r="H217" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="12">
+      <c r="I217" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6542,10 +6560,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="12" t="s">
+      <c r="J220" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6589,28 +6607,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="12">
+      <c r="A222" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="12">
+      <c r="C222" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="12">
+      <c r="E222" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="12">
+      <c r="F222" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="12">
+      <c r="G222" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="12">
+      <c r="H222" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6635,28 +6653,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="12">
+      <c r="C224" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="12">
+      <c r="D224" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="12">
+      <c r="I224" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6744,10 +6762,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="12" t="s">
+      <c r="J227" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6791,28 +6809,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="12">
+      <c r="A229" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="12">
+      <c r="C229" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="12">
+      <c r="E229" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="12">
+      <c r="F229" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="12">
+      <c r="G229" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="12">
+      <c r="H229" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6837,28 +6855,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="12">
+      <c r="C231" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="12">
+      <c r="D231" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="12">
+      <c r="I231" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6946,10 +6964,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="12" t="s">
+      <c r="J234" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6993,28 +7011,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="12">
+      <c r="A236" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="12">
+      <c r="C236" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7039,28 +7057,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="12">
+      <c r="C238" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="12">
+      <c r="D238" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="12">
+      <c r="I238" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7119,10 +7137,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="12" t="s">
+      <c r="J240" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7166,28 +7184,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="12">
+      <c r="A242" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="12">
+      <c r="C242" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7212,28 +7230,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="12">
+      <c r="C244" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="12">
+      <c r="D244" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="12">
+      <c r="I244" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7292,10 +7310,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="12" t="s">
+      <c r="J246" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7339,28 +7357,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="12">
+      <c r="A248" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="12">
+      <c r="C248" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7385,28 +7403,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="12">
+      <c r="C250" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="12">
+      <c r="D250" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="12">
+      <c r="I250" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7552,10 +7570,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="12" t="s">
+      <c r="J255" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7599,28 +7617,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="12">
+      <c r="A257" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="12">
+      <c r="C257" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7645,28 +7663,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="12">
+      <c r="C259" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="12">
+      <c r="D259" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="12">
+      <c r="I259" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7783,10 +7801,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="12" t="s">
+      <c r="J263" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7830,28 +7848,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="12">
+      <c r="A265" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="12">
+      <c r="C265" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7876,28 +7894,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="12">
+      <c r="B267" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="12">
+      <c r="C267" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="12">
+      <c r="D267" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="12">
+      <c r="E267" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="12">
+      <c r="F267" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="12">
+      <c r="G267" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="12">
+      <c r="H267" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="12">
+      <c r="I267" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7956,10 +7974,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="12" t="s">
+      <c r="J269" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -8003,28 +8021,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="12">
+      <c r="A271" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="12">
+      <c r="C271" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8049,28 +8067,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="12">
+      <c r="C273" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="12">
+      <c r="D273" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="12">
+      <c r="E273" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="12">
+      <c r="F273" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="12">
+      <c r="G273" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="12">
+      <c r="H273" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="12">
+      <c r="I273" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8129,10 +8147,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="12" t="s">
+      <c r="J275" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8176,28 +8194,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="12">
+      <c r="A277" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="12">
+      <c r="C277" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8222,28 +8240,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="12">
+      <c r="C279" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="12">
+      <c r="D279" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="12">
+      <c r="I279" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8302,10 +8320,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="12" t="s">
+      <c r="J281" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8349,28 +8367,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="12">
+      <c r="A283" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="12">
+      <c r="C283" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8395,28 +8413,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="12">
+      <c r="B285" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="12">
+      <c r="C285" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="12">
+      <c r="D285" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="12">
+      <c r="E285" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="12">
+      <c r="F285" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="12">
+      <c r="G285" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="12">
+      <c r="H285" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="12">
+      <c r="I285" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8475,10 +8493,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="12" t="s">
+      <c r="J287" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8522,28 +8540,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="12">
+      <c r="A289" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="12">
+      <c r="C289" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8568,28 +8586,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="12">
+      <c r="B291" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="12">
+      <c r="C291" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="12">
+      <c r="D291" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="12">
+      <c r="E291" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="12">
+      <c r="F291" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="12">
+      <c r="G291" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="12">
+      <c r="H291" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="12">
+      <c r="I291" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8648,10 +8666,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="12" t="s">
+      <c r="J293" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8695,28 +8713,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="12">
+      <c r="A295" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="12">
+      <c r="C295" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8741,28 +8759,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="12">
+      <c r="C297" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="12">
+      <c r="D297" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="12">
+      <c r="E297" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="12">
+      <c r="F297" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="12">
+      <c r="G297" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="12">
+      <c r="H297" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="12">
+      <c r="I297" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8850,10 +8868,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="12" t="s">
+      <c r="J300" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8897,28 +8915,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="12">
+      <c r="A302" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="12">
+      <c r="C302" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8943,28 +8961,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="12">
+      <c r="C304" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="12">
+      <c r="D304" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="12">
+      <c r="E304" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="12">
+      <c r="F304" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="12">
+      <c r="G304" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="12">
+      <c r="H304" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="12">
+      <c r="I304" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9023,10 +9041,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="12" t="s">
+      <c r="J306" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
